--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/10/Output_12_28.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/10/Output_12_28.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>49051.22050704771</v>
+        <v>9707888.623231506</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>49051.22050704771</v>
+        <v>9707888.623231506</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>45759.05799709402</v>
+        <v>4809081.259679769</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>45759.05799709402</v>
+        <v>4809081.259679769</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1609945577.416253</v>
+        <v>62226491.19435209</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>13106.10869521708</v>
+        <v>1430927.186838788</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>25507.84293959874</v>
+        <v>2752255.017771725</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>37909.57718398039</v>
+        <v>4073582.848704663</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>52934.26770222828</v>
+        <v>5229298.781118517</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>67223.98793670109</v>
+        <v>6413139.202340369</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>81513.70817117389</v>
+        <v>7596979.623562214</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>95927.94863110124</v>
+        <v>8883453.58658527</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>110225.7769698165</v>
+        <v>10146761.53748712</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>125107.2028870478</v>
+        <v>11248996.34442168</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>138324.7108841133</v>
+        <v>12549775.495061</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>151542.2188811788</v>
+        <v>13850554.64570032</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>163849.9589379241</v>
+        <v>15144621.82544732</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>176296.9183886087</v>
+        <v>16466393.66458827</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>191414.4319409783</v>
+        <v>17426549.11342871</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>209257.7986889553</v>
+        <v>17896218.94582913</v>
       </c>
     </row>
   </sheetData>
@@ -27037,13 +27037,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>221</v>
@@ -27052,13 +27052,13 @@
         <v>30</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>186</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,19 +27144,19 @@
         <v>377</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
         <v>293</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
         <v>245</v>
